--- a/input/arrays.xlsx
+++ b/input/arrays.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\biz-to-java\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBC5EF6-7C25-442B-9E8F-54229239310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8770E8-CE21-4C82-995C-716FFBB1CF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>enlgish</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,42 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>dfdf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> df ccc</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -500,13 +536,41 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
